--- a/Data/EC/NIT-9009332470.xlsx
+++ b/Data/EC/NIT-9009332470.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59C1FCF3-B246-4B12-BBA9-C624B892CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F64DB1-F5D4-4294-A6FC-76AE6D6F4A85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{580942EA-D810-403F-91C8-F74C570A58D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9B432CF3-DB51-4465-B18C-36A7237EC847}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,118 +65,118 @@
     <t>CC</t>
   </si>
   <si>
+    <t>12714676</t>
+  </si>
+  <si>
+    <t>ALVARO ANTONIO OSPINO BUELVAS</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
     <t>1131105641</t>
   </si>
   <si>
     <t>JORGE IVAN SUAREZ RAMIREZ</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1044923572</t>
+  </si>
+  <si>
+    <t>MICHAEL DAVID ACEVEDO MARTINEZ</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
     <t>1802</t>
   </si>
   <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1044923572</t>
-  </si>
-  <si>
-    <t>MICHAEL DAVID ACEVEDO MARTINEZ</t>
-  </si>
-  <si>
-    <t>12714676</t>
-  </si>
-  <si>
-    <t>ALVARO ANTONIO OSPINO BUELVAS</t>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
   </si>
   <si>
     <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1704</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -275,7 +275,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -288,9 +290,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -490,23 +490,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,10 +534,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -575,13 +575,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -590,7 +590,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C434621-C287-494D-E9C7-BC46BC55C6A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86A0771E-443E-12AC-154A-24B1669BE065}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -612,7 +612,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -941,7 +941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3D1281B-7F42-41F7-B2A4-4FC3BA51C180}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646D3C3F-8655-400C-91EC-4BDB95D10B95}">
   <dimension ref="B2:J73"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -952,7 +952,7 @@
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>9836</v>
       </c>
       <c r="G16" s="18">
         <v>781242</v>
@@ -1133,16 +1133,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>14755</v>
       </c>
       <c r="G17" s="18">
         <v>781242</v>
@@ -1156,19 +1156,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>26000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1378000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1202,13 +1202,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>29509</v>
@@ -1225,19 +1225,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1378000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1271,10 +1271,10 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>18</v>
@@ -1294,19 +1294,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>781242</v>
+        <v>1378000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1323,10 +1323,10 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F25" s="18">
-        <v>14755</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1340,19 +1340,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>1378000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1363,13 +1363,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1386,19 +1386,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F28" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>1378000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1409,19 +1409,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F29" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>1378000</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1432,13 +1432,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1455,19 +1455,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F31" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>1378000</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1478,19 +1478,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F32" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
-        <v>1378000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1501,13 +1501,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="16" t="s">
         <v>21</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>18</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1524,19 +1524,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="F34" s="18">
-        <v>52000</v>
+        <v>29509</v>
       </c>
       <c r="G34" s="18">
-        <v>1378000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1547,19 +1547,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F35" s="18">
-        <v>26000</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>1378000</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1570,19 +1570,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F36" s="18">
-        <v>24999</v>
+        <v>52000</v>
       </c>
       <c r="G36" s="18">
-        <v>781242</v>
+        <v>1378000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1593,16 +1593,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F37" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1616,16 +1616,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D38" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F38" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
         <v>781242</v>
@@ -1639,19 +1639,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>28</v>
-      </c>
       <c r="F39" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
-        <v>781242</v>
+        <v>1378000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1662,16 +1662,16 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>29</v>
-      </c>
       <c r="F40" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G40" s="18">
         <v>781242</v>
@@ -1685,16 +1685,16 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="16" t="s">
-        <v>30</v>
-      </c>
       <c r="F41" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G41" s="18">
         <v>781242</v>
@@ -1708,19 +1708,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D42" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G42" s="18">
-        <v>781242</v>
+        <v>1378000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1731,16 +1731,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1754,16 +1754,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1777,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>52000</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>1378000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1800,16 +1800,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1823,16 +1823,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1846,16 +1846,16 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F48" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G48" s="18">
         <v>781242</v>
@@ -1869,16 +1869,16 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F49" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G49" s="18">
         <v>781242</v>
@@ -1892,16 +1892,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -1915,13 +1915,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
@@ -1938,13 +1938,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F52" s="18">
         <v>29509</v>
@@ -1961,16 +1961,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -1984,16 +1984,16 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
         <v>781242</v>
@@ -2007,16 +2007,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2030,16 +2030,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2053,16 +2053,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2076,16 +2076,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2099,16 +2099,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2122,16 +2122,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2145,16 +2145,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2168,16 +2168,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2191,16 +2191,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2214,16 +2214,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G64" s="18">
         <v>781242</v>
@@ -2237,16 +2237,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G65" s="18">
         <v>781242</v>
@@ -2260,16 +2260,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="F66" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G66" s="18">
         <v>781242</v>
@@ -2283,16 +2283,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E67" s="22" t="s">
         <v>46</v>
       </c>
       <c r="F67" s="24">
-        <v>9836</v>
+        <v>24999</v>
       </c>
       <c r="G67" s="24">
         <v>781242</v>
